--- a/tabelas_template/DISPLAY LENOVO.xlsx
+++ b/tabelas_template/DISPLAY LENOVO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619BF708-52A3-425A-A84D-E2B490E4E5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2165ED7-7074-4372-99D4-BDD87CE3A2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="3225" windowWidth="15375" windowHeight="7785" xr2:uid="{B950E6D0-1A5E-41A8-BA34-7EC89472530F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B950E6D0-1A5E-41A8-BA34-7EC89472530F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DISPLAY LENOVO</t>
   </si>
@@ -47,9 +47,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 60,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -65,9 +62,6 @@
       </rPr>
       <t>S/ARO</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 55,00</t>
   </si>
   <si>
     <r>
@@ -94,6 +88,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -159,15 +156,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,7 +487,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,33 +497,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
